--- a/Engineering/2019-2020/Engineering Management/HFTList.xlsx
+++ b/Engineering/2019-2020/Engineering Management/HFTList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zacharyr/Desktop/UNHSEDS/Engineering/2019-2020/Engineering Management/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FD3582-2552-914E-8067-39011D1478E3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0566077E-E79F-1547-A1A4-75C65C8D468A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="940" windowWidth="19900" windowHeight="14320" xr2:uid="{6A0656A4-6D3E-9F4F-A96D-F1F555ECF2F6}"/>
+    <workbookView xWindow="320" yWindow="600" windowWidth="25600" windowHeight="14820" xr2:uid="{6A0656A4-6D3E-9F4F-A96D-F1F555ECF2F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Contacts</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Multimeter</t>
   </si>
   <si>
-    <t>Generator (+gas)</t>
-  </si>
-  <si>
     <t>Standard Wrenches (all sizes for major hardware)</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Hammers/Mallets</t>
   </si>
   <si>
-    <t>Go Pro</t>
-  </si>
-  <si>
     <t>Knife/Scissors</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Calipers, Mics, etc,</t>
   </si>
   <si>
-    <t>Solder Gun</t>
-  </si>
-  <si>
     <t>Ziptie Tool</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>Nitrous Tank</t>
   </si>
   <si>
-    <t>Aluminum Tape (whatever that chrome tape is we use for the thermocouples)</t>
-  </si>
-  <si>
     <t>Spare data cart and Arduino wires</t>
   </si>
   <si>
@@ -208,6 +196,12 @@
   </si>
   <si>
     <t>UNH PD/FD… (603) 862-1427</t>
+  </si>
+  <si>
+    <t>Aluminum Tape</t>
+  </si>
+  <si>
+    <t>Generator (+gas) - from Sheldon</t>
   </si>
 </sst>
 </file>
@@ -301,12 +295,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7443DC-8612-3043-8C88-2DE3C31961D5}">
   <dimension ref="B2:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,22 +644,22 @@
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -675,18 +671,18 @@
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>6</v>
@@ -695,21 +691,21 @@
         <v>13</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
@@ -718,16 +714,16 @@
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -741,16 +737,16 @@
         <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -761,16 +757,16 @@
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -778,13 +774,13 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -792,61 +788,57 @@
         <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H10" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H14" s="2" t="s">
-        <v>27</v>
+      <c r="H14" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H15" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="H16" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="H16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
